--- a/biology/Biochimie/Grace_Oladunni_Taylor/Grace_Oladunni_Taylor.xlsx
+++ b/biology/Biochimie/Grace_Oladunni_Taylor/Grace_Oladunni_Taylor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grace Oladunni Taylor (aussi connue sous le nom de Grace Oladunni Lucia Olaniyan-Taylor), née en 1937, est une biochimiste de l'université d'Ibadan, au Nigéria. Elle est la deuxième femme à avoir été intronisée à l'Académie nigériane des sciences et l’une des scientifiques ayant reçu les premiers prix L'Oréal-UNESCO pour les femmes et la science décernés.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grace Oladunni Lucia Olaniyan est née le 24 avril 1937[1] à Efon Alaaye, dans l'État d'Ekiti, au Nigeria, de Elizabeth (née Olatoun) et Raw Olaniyan. Entre 1952 et 1956, elle est étudiante à Ede dans l'État d'Osun. Elle commence ses études supérieures en 1957 au Collège nigérian de Arts et des Sciences à Enugu en 1959 puis dans un établissement d'Ibadan (aujourd'hui intégré à l'université d'Ibadan). Diplômée en 1962 en chimie, elle entame une activité professionnelle immédiatement dans une station de recherche agricole régionale[2].
-En 1963, elle est embauchée comme assistante de recherche au Département de biochimie clinique à l'université d'Ibadan, ce qui lui permet de poursuivre des études en parallèle. Elle obtient son doctorat en biochimie clinique en 1969[2].
-Dans les années 1970 et 1980, elle exerce comme chercheur et enseignante dans différents centres universitaires au Nigéria (où elle gravit progressivement les échelons), à Seattle aux États-Unis, à Kingston en Jamaïque et à Port-d'Espagne en Trinité-et-Tobago. En 1979, elle épouse aussi le professeur Ajibola Taylor. En 1990, elle est embauchée comme professeur agrégé à l'école de médecine de l'université du Zimbabwe, à Harare, et y enseigne. En 1991, elle revient à l'université d'Ibadan, où, de 1991 à 1994, elle est chef du département de biochimie clinique et sert en tant que Consultant honoraire à l’hôpital universitaire d’Ibadan. Elle prend sa retraite en 2004[2], mais continue à donner des conférences à Ibadan dans le Département de biochimie clinique[3].
-Biochimiste, elle est spécialiste du métabolisme des lipides. Ses recherches ont permis des avancées dans la compréhension des mécanismes et les facteurs de risque des maladies cardio-vasculaires en fonction de l'origine ethnique et du mode de vie (régime alimentaire, exercice physique, etc.) des personnes concernées[4].
-Elle reçoit de nombreuses distinctions pour les résultats de ses recherches[2]. Elle est intronisée à l'Académie des sciences du Nigeria en 1997[5], la deuxième femme à être ainsi honorée comme membre titulaire de l’Académie [2]. Elle devient la première femme scientifique africaine à recevoir le prix L'Oréal-UNESCO pour les femmes et la science[4] en 1998.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grace Oladunni Lucia Olaniyan est née le 24 avril 1937 à Efon Alaaye, dans l'État d'Ekiti, au Nigeria, de Elizabeth (née Olatoun) et Raw Olaniyan. Entre 1952 et 1956, elle est étudiante à Ede dans l'État d'Osun. Elle commence ses études supérieures en 1957 au Collège nigérian de Arts et des Sciences à Enugu en 1959 puis dans un établissement d'Ibadan (aujourd'hui intégré à l'université d'Ibadan). Diplômée en 1962 en chimie, elle entame une activité professionnelle immédiatement dans une station de recherche agricole régionale.
+En 1963, elle est embauchée comme assistante de recherche au Département de biochimie clinique à l'université d'Ibadan, ce qui lui permet de poursuivre des études en parallèle. Elle obtient son doctorat en biochimie clinique en 1969.
+Dans les années 1970 et 1980, elle exerce comme chercheur et enseignante dans différents centres universitaires au Nigéria (où elle gravit progressivement les échelons), à Seattle aux États-Unis, à Kingston en Jamaïque et à Port-d'Espagne en Trinité-et-Tobago. En 1979, elle épouse aussi le professeur Ajibola Taylor. En 1990, elle est embauchée comme professeur agrégé à l'école de médecine de l'université du Zimbabwe, à Harare, et y enseigne. En 1991, elle revient à l'université d'Ibadan, où, de 1991 à 1994, elle est chef du département de biochimie clinique et sert en tant que Consultant honoraire à l’hôpital universitaire d’Ibadan. Elle prend sa retraite en 2004, mais continue à donner des conférences à Ibadan dans le Département de biochimie clinique.
+Biochimiste, elle est spécialiste du métabolisme des lipides. Ses recherches ont permis des avancées dans la compréhension des mécanismes et les facteurs de risque des maladies cardio-vasculaires en fonction de l'origine ethnique et du mode de vie (régime alimentaire, exercice physique, etc.) des personnes concernées.
+Elle reçoit de nombreuses distinctions pour les résultats de ses recherches. Elle est intronisée à l'Académie des sciences du Nigeria en 1997, la deuxième femme à être ainsi honorée comme membre titulaire de l’Académie . Elle devient la première femme scientifique africaine à recevoir le prix L'Oréal-UNESCO pour les femmes et la science en 1998.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Grace Oladunni Taylor et Afolabi E. Bamgboye, « Serum cholesterol and diseases in Nigerians », The American Journal of Clinical Nutrition, vol. 32,‎ décembre 1979, p. 2540–2545 (lire en ligne).
 (en) Grace Oladunni Taylor, Olu Emmanuel Agbedana. et A. O. K. Johnson, « High-density-lipoprotein-cholesterol in protein–energy malnutrition », British Journal of Nutrition, vol. 47, no 3,‎ mai 1982, p. 489–494 (DOI 10.1079/BJN19820061, lire en ligne).
